--- a/baocao/phieu_nhap_xuat.xlsx
+++ b/baocao/phieu_nhap_xuat.xlsx
@@ -304,22 +304,22 @@
     <t>2024-12-04</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cắt cỏ sân bay</t>
+    <t>Bộ tham mưu</t>
+  </si>
+  <si>
+    <t>kh-2390</t>
+  </si>
+  <si>
+    <t>dc chuong</t>
   </si>
   <si>
     <t>2024-12-06</t>
   </si>
   <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>E5-RON92</t>
-  </si>
-  <si>
-    <t>XANG E5 RON92</t>
+    <t>QA-3420</t>
+  </si>
+  <si>
+    <t>Dầu MC-20</t>
   </si>
   <si>
     <t>0.0</t>
@@ -1286,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P25"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
@@ -1355,15 +1355,15 @@
       <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9">
-        <v>2558</v>
+      <c r="H4" s="9" t="n">
+        <v>7488.0</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L4" s="11"/>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1388,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L5" s="16"/>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1530,6 +1530,517 @@
         <v>32</v>
       </c>
       <c r="K12" s="88"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="30" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="K13" s="30" t="n">
+        <v>12415.0</v>
+      </c>
+      <c r="L13" s="30" t="n">
+        <v>2.483E8</v>
+      </c>
+      <c r="P13" s="31"/>
+    </row>
+    <row r="14" ht="20.85" customHeight="true">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="2:16" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39" t="n">
+        <f>SUM(J13:J15)</f>
+        <v>20000.0</v>
+      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="39" t="n">
+        <v>2.483E8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="46"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="80"/>
+      <c r="K21" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="78"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="3.85546875"/>
+    <col min="2" max="2" customWidth="true" style="1" width="6.0"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0"/>
+    <col min="4" max="4" customWidth="true" style="1" width="22.42578125"/>
+    <col min="5" max="5" customWidth="true" style="1" width="10.0"/>
+    <col min="6" max="6" customWidth="true" style="1" width="11.5703125"/>
+    <col min="7" max="7" customWidth="true" style="1" width="10.140625"/>
+    <col min="8" max="9" customWidth="true" style="1" width="11.5703125"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.28515625"/>
+    <col min="11" max="11" customWidth="true" style="1" width="15.28515625"/>
+    <col min="12" max="12" customWidth="true" style="1" width="22.0"/>
+    <col min="13" max="1024" style="1" width="9.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="91"/>
+    </row>
+    <row r="3" spans="2:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="67"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
+    </row>
+    <row r="7" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
+    </row>
+    <row r="8" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
+    </row>
+    <row r="9" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="85"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -1559,7 +2070,7 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="2:16" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
@@ -1570,13 +2081,14 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="39" t="n">
+      <c r="J15" s="73" t="n">
         <f>SUM(J13:J14)</f>
         <v>0.0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="39">
-        <v>0</v>
+      <c r="K15" s="73"/>
+      <c r="L15" s="39" t="n">
+        <f>SUM(L13:L14)</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,7 +2105,7 @@
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="47" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="46"/>
@@ -1611,7 +2123,7 @@
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="51"/>
     </row>
     <row r="18" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,7 +2138,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="54"/>
     </row>
     <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -1639,8 +2151,8 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="79" t="s">
@@ -1660,10 +2172,10 @@
         <v>42</v>
       </c>
       <c r="J20" s="80"/>
-      <c r="K20" s="78" t="s">
+      <c r="K20" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="78"/>
+      <c r="L20" s="90"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="56"/>
@@ -1675,7 +2187,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="59"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -1688,7 +2200,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="59"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -1701,7 +2213,7 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
+      <c r="K23" s="62"/>
       <c r="L23" s="64"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -1720,10 +2232,10 @@
         <v>46</v>
       </c>
       <c r="J24" s="76"/>
-      <c r="K24" s="77" t="s">
+      <c r="K24" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="77"/>
+      <c r="L24" s="89"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="65"/>
@@ -1735,7 +2247,7 @@
       <c r="H25" s="65"/>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="65"/>
     </row>
   </sheetData>
@@ -1770,530 +2282,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="3.85546875"/>
-    <col min="2" max="2" customWidth="true" style="1" width="6.0"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="22.42578125"/>
-    <col min="5" max="5" customWidth="true" style="1" width="10.0"/>
-    <col min="6" max="6" customWidth="true" style="1" width="11.5703125"/>
-    <col min="7" max="7" customWidth="true" style="1" width="10.140625"/>
-    <col min="8" max="9" customWidth="true" style="1" width="11.5703125"/>
-    <col min="10" max="10" customWidth="true" style="1" width="17.28515625"/>
-    <col min="11" max="11" customWidth="true" style="1" width="15.28515625"/>
-    <col min="12" max="12" customWidth="true" style="1" width="22.0"/>
-    <col min="13" max="1024" style="1" width="9.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="91"/>
-    </row>
-    <row r="3" spans="2:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>3213.0</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="70"/>
-    </row>
-    <row r="6" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
-    </row>
-    <row r="7" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
-    </row>
-    <row r="8" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-    </row>
-    <row r="9" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-    </row>
-    <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="30" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K13" s="30" t="n">
-        <v>12588.0</v>
-      </c>
-      <c r="L13" s="30" t="n">
-        <v>100704.0</v>
-      </c>
-      <c r="P13" s="31"/>
-    </row>
-    <row r="14" ht="20.85" customHeight="true">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="73" t="n">
-        <f>SUM(J13:J15)</f>
-        <v>8.0</v>
-      </c>
-      <c r="K16" s="73"/>
-      <c r="L16" s="39" t="n">
-        <f>SUM(L13:L15)</f>
-        <v>100704.0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="46"/>
-      <c r="P17" s="23"/>
-    </row>
-    <row r="18" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="51"/>
-    </row>
-    <row r="19" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="54"/>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="80"/>
-      <c r="K21" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="90"/>
-    </row>
-    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="59"/>
-    </row>
-    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="64"/>
-    </row>
-    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="89"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/baocao/phieu_nhap_xuat.xlsx
+++ b/baocao/phieu_nhap_xuat.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>QC PHÒNG KHÔNG - KHÔNG QUÂN</t>
   </si>
@@ -304,25 +304,34 @@
     <t>2024-12-04</t>
   </si>
   <si>
-    <t>Bộ tham mưu</t>
-  </si>
-  <si>
-    <t>kh-2390</t>
-  </si>
-  <si>
-    <t>dc chuong</t>
-  </si>
-  <si>
-    <t>2024-12-06</t>
-  </si>
-  <si>
-    <t>QA-3420</t>
-  </si>
-  <si>
-    <t>Dầu MC-20</t>
+    <t>e927</t>
+  </si>
+  <si>
+    <t>Xuất báo nợ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>A80</t>
+  </si>
+  <si>
+    <t>Xăng A80</t>
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>E5-RON92</t>
+  </si>
+  <si>
+    <t>XANG E5 RON92</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P26"/>
+  <dimension ref="B2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
@@ -1355,15 +1364,15 @@
       <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="n">
-        <v>7488.0</v>
+      <c r="H4" s="9">
+        <v>2558</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L4" s="11"/>
     </row>
@@ -1373,7 +1382,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1388,7 +1397,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L5" s="16"/>
     </row>
@@ -1417,7 +1426,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -1436,7 +1445,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1530,517 +1539,6 @@
         <v>32</v>
       </c>
       <c r="K12" s="88"/>
-      <c r="L12" s="85"/>
-    </row>
-    <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="30" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="K13" s="30" t="n">
-        <v>12415.0</v>
-      </c>
-      <c r="L13" s="30" t="n">
-        <v>2.483E8</v>
-      </c>
-      <c r="P13" s="31"/>
-    </row>
-    <row r="14" ht="20.85" customHeight="true">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="2:16" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39" t="n">
-        <f>SUM(J13:J15)</f>
-        <v>20000.0</v>
-      </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="39" t="n">
-        <v>2.483E8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="46"/>
-      <c r="P17" s="23"/>
-    </row>
-    <row r="18" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-    </row>
-    <row r="19" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="80"/>
-      <c r="K21" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="78"/>
-    </row>
-    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-    </row>
-    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
-    </row>
-    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="77"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="3.85546875"/>
-    <col min="2" max="2" customWidth="true" style="1" width="6.0"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="22.42578125"/>
-    <col min="5" max="5" customWidth="true" style="1" width="10.0"/>
-    <col min="6" max="6" customWidth="true" style="1" width="11.5703125"/>
-    <col min="7" max="7" customWidth="true" style="1" width="10.140625"/>
-    <col min="8" max="9" customWidth="true" style="1" width="11.5703125"/>
-    <col min="10" max="10" customWidth="true" style="1" width="17.28515625"/>
-    <col min="11" max="11" customWidth="true" style="1" width="15.28515625"/>
-    <col min="12" max="12" customWidth="true" style="1" width="22.0"/>
-    <col min="13" max="1024" style="1" width="9.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="91"/>
-    </row>
-    <row r="3" spans="2:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
-    </row>
-    <row r="6" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
-    </row>
-    <row r="7" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
-    </row>
-    <row r="8" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-    </row>
-    <row r="9" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="85"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -2070,7 +1568,7 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
@@ -2081,14 +1579,13 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="73" t="n">
+      <c r="J15" s="39" t="n">
         <f>SUM(J13:J14)</f>
         <v>0.0</v>
       </c>
-      <c r="K15" s="73"/>
-      <c r="L15" s="39" t="n">
-        <f>SUM(L13:L14)</f>
-        <v>0.0</v>
+      <c r="K15" s="40"/>
+      <c r="L15" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,7 +1602,7 @@
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="45" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="46"/>
@@ -2123,7 +1620,7 @@
       <c r="H17" s="49"/>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="51"/>
     </row>
     <row r="18" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2138,7 +1635,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="54"/>
     </row>
     <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2151,8 +1648,8 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="79" t="s">
@@ -2172,10 +1669,10 @@
         <v>42</v>
       </c>
       <c r="J20" s="80"/>
-      <c r="K20" s="90" t="s">
+      <c r="K20" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="90"/>
+      <c r="L20" s="78"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="56"/>
@@ -2187,7 +1684,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="59"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2200,7 +1697,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="59"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2213,7 +1710,7 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
       <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="64"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -2232,10 +1729,10 @@
         <v>46</v>
       </c>
       <c r="J24" s="76"/>
-      <c r="K24" s="89" t="s">
+      <c r="K24" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="89"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="65"/>
@@ -2247,7 +1744,7 @@
       <c r="H25" s="65"/>
       <c r="I25" s="65"/>
       <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
+      <c r="K25" s="66"/>
       <c r="L25" s="65"/>
     </row>
   </sheetData>
@@ -2282,6 +1779,563 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="3.85546875"/>
+    <col min="2" max="2" customWidth="true" style="1" width="6.0"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0"/>
+    <col min="4" max="4" customWidth="true" style="1" width="22.42578125"/>
+    <col min="5" max="5" customWidth="true" style="1" width="10.0"/>
+    <col min="6" max="6" customWidth="true" style="1" width="11.5703125"/>
+    <col min="7" max="7" customWidth="true" style="1" width="10.140625"/>
+    <col min="8" max="9" customWidth="true" style="1" width="11.5703125"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.28515625"/>
+    <col min="11" max="11" customWidth="true" style="1" width="15.28515625"/>
+    <col min="12" max="12" customWidth="true" style="1" width="22.0"/>
+    <col min="13" max="1024" style="1" width="9.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="91"/>
+    </row>
+    <row r="3" spans="2:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>2154.0</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
+    </row>
+    <row r="7" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
+    </row>
+    <row r="8" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
+    </row>
+    <row r="9" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="30" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K13" s="30" t="n">
+        <v>142857.0</v>
+      </c>
+      <c r="L13" s="30" t="n">
+        <v>1857141.0</v>
+      </c>
+      <c r="P13" s="31"/>
+    </row>
+    <row r="14" ht="20.85" customHeight="true">
+      <c r="B14" s="32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K14" s="35" t="n">
+        <v>3548.0</v>
+      </c>
+      <c r="L14" s="35" t="n">
+        <v>21288.0</v>
+      </c>
+    </row>
+    <row r="15" ht="20.85" customHeight="true">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="73" t="n">
+        <f>SUM(J13:J16)</f>
+        <v>19.0</v>
+      </c>
+      <c r="K17" s="73"/>
+      <c r="L17" s="39" t="n">
+        <f>SUM(L13:L16)</f>
+        <v>1878429.0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="46"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="51"/>
+    </row>
+    <row r="20" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="54"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="80"/>
+      <c r="K22" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="90"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="59"/>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="64"/>
+    </row>
+    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="76"/>
+      <c r="K26" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="89"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/baocao/phieu_nhap_xuat.xlsx
+++ b/baocao/phieu_nhap_xuat.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>QC PHÒNG KHÔNG - KHÔNG QUÂN</t>
   </si>
@@ -304,34 +304,28 @@
     <t>2024-12-04</t>
   </si>
   <si>
-    <t>e927</t>
-  </si>
-  <si>
-    <t>Xuất báo nợ</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>2024-12-13</t>
-  </si>
-  <si>
-    <t>2024-12-12</t>
-  </si>
-  <si>
-    <t>A80</t>
-  </si>
-  <si>
-    <t>Xăng A80</t>
+    <t>e923</t>
+  </si>
+  <si>
+    <t>Tác chiến cho bay</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>JETA-01</t>
+  </si>
+  <si>
+    <t>Dầu JETA-01</t>
   </si>
   <si>
     <t>0.0</t>
-  </si>
-  <si>
-    <t>E5-RON92</t>
-  </si>
-  <si>
-    <t>XANG E5 RON92</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P27"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -1855,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>2154.0</v>
+        <v>2381.0</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
@@ -1872,7 +1866,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="68" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1887,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L5" s="70"/>
     </row>
@@ -1897,7 +1891,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1916,7 +1910,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -1935,7 +1929,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -2043,7 +2037,7 @@
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29" t="n">
-        <v>11.0</v>
+        <v>2026.0</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>68</v>
@@ -2055,50 +2049,30 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="30" t="n">
-        <v>13.0</v>
+        <v>2026.0</v>
       </c>
       <c r="K13" s="30" t="n">
         <v>142857.0</v>
       </c>
       <c r="L13" s="30" t="n">
-        <v>1857141.0</v>
+        <v>2.89428282E8</v>
       </c>
       <c r="P13" s="31"/>
     </row>
     <row r="14" ht="20.85" customHeight="true">
-      <c r="B14" s="32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>70</v>
-      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="33"/>
-      <c r="F14" s="34" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="35" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K14" s="35" t="n">
-        <v>3548.0</v>
-      </c>
-      <c r="L14" s="35" t="n">
-        <v>21288.0</v>
-      </c>
-    </row>
-    <row r="15" ht="20.85" customHeight="true">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -2111,125 +2085,125 @@
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37" t="s">
+    <row r="16" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="73" t="n">
-        <f>SUM(J13:J16)</f>
-        <v>19.0</v>
-      </c>
-      <c r="K17" s="73"/>
-      <c r="L17" s="39" t="n">
-        <f>SUM(L13:L16)</f>
-        <v>1878429.0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="73" t="n">
+        <f>SUM(J13:J15)</f>
+        <v>2026.0</v>
+      </c>
+      <c r="K16" s="73"/>
+      <c r="L16" s="39" t="n">
+        <f>SUM(L13:L15)</f>
+        <v>2.89428282E8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="46"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="46"/>
-      <c r="P18" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="51"/>
     </row>
     <row r="19" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="51"/>
-    </row>
-    <row r="20" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="54"/>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="90"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="54"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="80"/>
+      <c r="K21" s="90" t="s">
+        <v>43</v>
+      </c>
       <c r="L21" s="90"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="80"/>
-      <c r="K22" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="90"/>
+    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="56"/>
@@ -2245,67 +2219,54 @@
       <c r="L23" s="59"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="64"/>
     </row>
     <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="64"/>
-    </row>
-    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="74" t="s">
+      <c r="B25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76" t="s">
+      <c r="H25" s="76"/>
+      <c r="I25" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="76"/>
-      <c r="K26" s="89" t="s">
+      <c r="J25" s="76"/>
+      <c r="K25" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="89"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
+      <c r="L25" s="89"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="33">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="K2:L2"/>
@@ -2317,17 +2278,17 @@
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
